--- a/biology/Botanique/Scolytinae/Scolytinae.xlsx
+++ b/biology/Botanique/Scolytinae/Scolytinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scolytes
-Les scolytes (Scolytinae) forment une sous-famille d'insectes coléoptères[1] de la famille des Curculionidae.
+Les scolytes (Scolytinae) forment une sous-famille d'insectes coléoptères de la famille des Curculionidae.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les scolytes sont de petits insectes de l'ordre des coléoptères. Ils font partie d'une grande famille renfermant des insectes dits « ravageurs », les curculionidés. Leur corps de deux à cinq millimètres est cylindrique et court, de couleur brun foncé à rougeâtre et recouvert par les élytres qui protègent leurs ailes. Leur nom vient du grec skôlêx, terme des auteurs antiques désignant un ver mais aussi une larve d'insecte, celle des scolytes étant caractéristique (larve apode, molle, blanchâtre et arquée)[2].
-Certaines espèces de scolytes (par exemple : Dendroctonus ponderosae) sont à l'état adulte attirées par certaines hormones de stress (phytohormones) émises par des arbres malades ou déshydratés[3], les autres le sont par l'odeur du bois mort.
-Sur les quelque 6 000 espèces connues dans 247 genres, la plupart sont phytophages, se nourrissant principalement ou uniquement sur des angiospermes. Pas plus de 10 % sont xylophages (les femelles pondent sous l'écorce des arbres et les larves se nourrissent de leur sève, ce qui peut mener à la mort de l'arbre, moins de 1 % de ces espèces pouvant tuer des arbres vivants et sains)[4].
-Comme beaucoup d'insectes xylophages ou saproxylophages (comme les fourmis et les termites), le scolyte ne peut directement digérer le bois en raison de la présence de lignine et de cellulose. Il emporte donc avec lui, de l'arbre où il est né, une provision de spores et/ou de mycélium d'un champignon symbiotique capable de digérer ces polymères. Le transport se fait grâce aux mycangia (sing. mycangium), invaginations de la cuticule souvent garnie de glandes qui semblent nourrir et/ou préserver les spores ou fragments de mycélium. Des spores de champignons peuvent être aussi captées, transportées et inoculées grâce aux poils microscopiques qui garnissent la carapace et les pattes du scolyte[5]. Ce champignon symbiote attaque la lignine et la cellulose, qui sont ainsi comestibles pour la larve du scolyte. Chez certaines espèces de Scolytinae et chez les Platypodinae, ce ne sont pas les fibres végétales prédigérées qui sont ingérées par la larve, mais plutôt le champignon lui-même. Certaines espèces de scolytes (e.g. Dendroctonus frontalis) n'ont pas de mycangium, mais elles transportent sur leur corps des acariens qui eux possèdent une sorte de mycangium (qu'on appelle sporothèque chez les acariens pour des raisons historiques de vocabulaire taxonomique).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les scolytes sont de petits insectes de l'ordre des coléoptères. Ils font partie d'une grande famille renfermant des insectes dits « ravageurs », les curculionidés. Leur corps de deux à cinq millimètres est cylindrique et court, de couleur brun foncé à rougeâtre et recouvert par les élytres qui protègent leurs ailes. Leur nom vient du grec skôlêx, terme des auteurs antiques désignant un ver mais aussi une larve d'insecte, celle des scolytes étant caractéristique (larve apode, molle, blanchâtre et arquée).
+Certaines espèces de scolytes (par exemple : Dendroctonus ponderosae) sont à l'état adulte attirées par certaines hormones de stress (phytohormones) émises par des arbres malades ou déshydratés, les autres le sont par l'odeur du bois mort.
+Sur les quelque 6 000 espèces connues dans 247 genres, la plupart sont phytophages, se nourrissant principalement ou uniquement sur des angiospermes. Pas plus de 10 % sont xylophages (les femelles pondent sous l'écorce des arbres et les larves se nourrissent de leur sève, ce qui peut mener à la mort de l'arbre, moins de 1 % de ces espèces pouvant tuer des arbres vivants et sains).
+Comme beaucoup d'insectes xylophages ou saproxylophages (comme les fourmis et les termites), le scolyte ne peut directement digérer le bois en raison de la présence de lignine et de cellulose. Il emporte donc avec lui, de l'arbre où il est né, une provision de spores et/ou de mycélium d'un champignon symbiotique capable de digérer ces polymères. Le transport se fait grâce aux mycangia (sing. mycangium), invaginations de la cuticule souvent garnie de glandes qui semblent nourrir et/ou préserver les spores ou fragments de mycélium. Des spores de champignons peuvent être aussi captées, transportées et inoculées grâce aux poils microscopiques qui garnissent la carapace et les pattes du scolyte. Ce champignon symbiote attaque la lignine et la cellulose, qui sont ainsi comestibles pour la larve du scolyte. Chez certaines espèces de Scolytinae et chez les Platypodinae, ce ne sont pas les fibres végétales prédigérées qui sont ingérées par la larve, mais plutôt le champignon lui-même. Certaines espèces de scolytes (e.g. Dendroctonus frontalis) n'ont pas de mycangium, mais elles transportent sur leur corps des acariens qui eux possèdent une sorte de mycangium (qu'on appelle sporothèque chez les acariens pour des raisons historiques de vocabulaire taxonomique).
 De nombreuses espèces de scolytes sont, comme les hyménoptères, haplodiploïdes : les femelles sont diploïdes (provenant d'œufs fécondés) et les mâles haploïdes (provenant d'œufs non fécondés et ils sont donc parthénogénétiques).
 </t>
         </is>
@@ -547,9 +561,11 @@
           <t>Système de galeries</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont généralement les femelles qui, grâce à leurs mandibules en forme de gouge, forent les orifices d'entrée dans l'écorce d'arbres de ponte, les mâles collaborant en dégageant les débris. Ils produisent des phéromones agrégatives, qui attirent des congénères des deux sexes. Le taraudage de la galerie de pénétration forme un canal d'abord radial ou oblique, avant de s'infléchir pour suivre une zone de moindre résistance (courbure d'un cerne de croissance). La littérature scientifique décrit aussi le forage de galerie alimentaire ou de galerie de maturation. Pour se reproduire, les mâles, parfois aidés des femelles, forent une chambre nuptiale. Lors d'une colonisation réussie, une ou plusieurs femelles (selon que l'espèce est monogame ou polygame) pénètrent dans la chambre nuptiale aménagée où se déroule l'accouplement avec le mâle. Depuis la chambre nuptiale, chaque femelle fore une galerie maternelle (appelée aussi galerie de ponte) de longueur variable (généralement quelques centimètres) dans le sens des fibres du bois (verticalement si l’arbre est encore debout), ce qui donne plusieurs branches partant de la chambre nuptiale (le nombre de branches correspondant au nombre de femelles fécondées). Elle y aménage des trous d'aération et dépose ses œufs (d'une dizaine à plusieurs centaines selon l'espèce) dans des encoches de ponte de part et d'autre de la galerie. Dès l'éclosion, la larve creuse à partir de l'encoche une galerie légèrement sinueuse (appelée galerie larvaire) qui s'élargit progressivement jusqu'à son extrémité où elle forme une niche appelée berceau de nymphose. Après la mue de la larve en imago, le jeune scolyte poursuit le forage cortical en creusant de nombreux couloirs et perçant un trou dans l'écorce pour partir essaimer. L'essence de l'arbre, la forme et la taille des galeries, permettent à un œil averti de déterminer l'espèce de scolyte responsable. À mesure que la densité des galeries augmente, une phase de dépérissement des arbres commence. L'écorce perd alors ses capacités de défense physique et chimique. Elle se détache sous l'effet de ces forages larvaires et finit par tomber, révélant le réseau de galeries qui dessinent de grands motifs rappelant des graffitis sous l'écorce[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont généralement les femelles qui, grâce à leurs mandibules en forme de gouge, forent les orifices d'entrée dans l'écorce d'arbres de ponte, les mâles collaborant en dégageant les débris. Ils produisent des phéromones agrégatives, qui attirent des congénères des deux sexes. Le taraudage de la galerie de pénétration forme un canal d'abord radial ou oblique, avant de s'infléchir pour suivre une zone de moindre résistance (courbure d'un cerne de croissance). La littérature scientifique décrit aussi le forage de galerie alimentaire ou de galerie de maturation. Pour se reproduire, les mâles, parfois aidés des femelles, forent une chambre nuptiale. Lors d'une colonisation réussie, une ou plusieurs femelles (selon que l'espèce est monogame ou polygame) pénètrent dans la chambre nuptiale aménagée où se déroule l'accouplement avec le mâle. Depuis la chambre nuptiale, chaque femelle fore une galerie maternelle (appelée aussi galerie de ponte) de longueur variable (généralement quelques centimètres) dans le sens des fibres du bois (verticalement si l’arbre est encore debout), ce qui donne plusieurs branches partant de la chambre nuptiale (le nombre de branches correspondant au nombre de femelles fécondées). Elle y aménage des trous d'aération et dépose ses œufs (d'une dizaine à plusieurs centaines selon l'espèce) dans des encoches de ponte de part et d'autre de la galerie. Dès l'éclosion, la larve creuse à partir de l'encoche une galerie légèrement sinueuse (appelée galerie larvaire) qui s'élargit progressivement jusqu'à son extrémité où elle forme une niche appelée berceau de nymphose. Après la mue de la larve en imago, le jeune scolyte poursuit le forage cortical en creusant de nombreux couloirs et perçant un trou dans l'écorce pour partir essaimer. L'essence de l'arbre, la forme et la taille des galeries, permettent à un œil averti de déterminer l'espèce de scolyte responsable. À mesure que la densité des galeries augmente, une phase de dépérissement des arbres commence. L'écorce perd alors ses capacités de défense physique et chimique. Elle se détache sous l'effet de ces forages larvaires et finit par tomber, révélant le réseau de galeries qui dessinent de grands motifs rappelant des graffitis sous l'écorce.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Dégâts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En temps normal, le scolyte joue un rôle utile pour la régénération forestière. Dans un cas particulier, des scolytes ont colporté d'orme en orme un nouveau variant — extrêmement phytopathogène — du champignon Ophiostoma ulmi ; ce champignon ayant peut-être été favorisé par la forte sécheresse de 1975-1976 et par l'homogénéité génétique des ormes d'alignement et du bocage.
 Un arbre en bonne santé dispose pour se défendre d'une batterie de molécules naturellement insecticides, bactéricides et fongicides et de défenses physiques (lignine dure, capacité à immobiliser, engluer et noyer dans la sève ou de la résine tout insecte s'introduisant ou se développant dans la partie superficielle de son tronc). Ce n'est plus le cas chez un arbre fendu, blessé ou déshydraté.
@@ -623,12 +641,14 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La lutte contre les scolytes est délicate, d'abord du fait de leur mode de vie : ils passent en effet la plus grande part de leur vie sous l'écorce (où on leur connaît peu de prédateurs, hormis des bactéries ou acariens qui peuvent attaquer ses œufs[9]) ; ensuite parce qu'en les éliminant (par des insecticides), on permettrait aux arbres stressés de survivre, c'est-à-dire d'évapotranspirer plus longtemps, en continuant donc à épuiser la ressource en eau en temps de sécheresse (risque accru de maladies et de défoliation plus grave, mais aussi d'incendies aggravés).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La lutte contre les scolytes est délicate, d'abord du fait de leur mode de vie : ils passent en effet la plus grande part de leur vie sous l'écorce (où on leur connaît peu de prédateurs, hormis des bactéries ou acariens qui peuvent attaquer ses œufs) ; ensuite parce qu'en les éliminant (par des insecticides), on permettrait aux arbres stressés de survivre, c'est-à-dire d'évapotranspirer plus longtemps, en continuant donc à épuiser la ressource en eau en temps de sécheresse (risque accru de maladies et de défoliation plus grave, mais aussi d'incendies aggravés).
 Plusieurs modes de lutte sont possibles :
-Lutte préventive : elle vise à ne pas encourager la pullulation de scolytes ; elle visera surtout à limiter tant que faire se peut le stress hydrique des arbres qui semble être une condition de pullulation du scolyte. Selon une étude slovène, l'application d'une dose précise, et dans certaines conditions de deux couches d'acide salicylique semble aussi renforcer les défenses immunitaires de l'arbre[10].
-Limitation des « effets de lisières » et donc de la fragmentation des forêts par des routes et grandes coupes rases uniformes ; on a par exemple constaté que les épicéas poussant sur les lisières naturelles (falaises) ou artificielles (de coupes rases, routes, layons...) ou sur des zones sèches, notamment sur pentes, semblent présenter une sensibilité exacerbée au stress hydrique et aux scolytes et peut-être à des infestations par des défoliateurs (les perturbations micro-climatiques liées aux effets de lisières sont mesurables avec un simple thermo-hygromètre et visibles en photo-infrarouges. Dans ces zones, les attaques de scolytes semblent favorisées, selon des études qui demandent encore à être affinées[11].
+Lutte préventive : elle vise à ne pas encourager la pullulation de scolytes ; elle visera surtout à limiter tant que faire se peut le stress hydrique des arbres qui semble être une condition de pullulation du scolyte. Selon une étude slovène, l'application d'une dose précise, et dans certaines conditions de deux couches d'acide salicylique semble aussi renforcer les défenses immunitaires de l'arbre.
+Limitation des « effets de lisières » et donc de la fragmentation des forêts par des routes et grandes coupes rases uniformes ; on a par exemple constaté que les épicéas poussant sur les lisières naturelles (falaises) ou artificielles (de coupes rases, routes, layons...) ou sur des zones sèches, notamment sur pentes, semblent présenter une sensibilité exacerbée au stress hydrique et aux scolytes et peut-être à des infestations par des défoliateurs (les perturbations micro-climatiques liées aux effets de lisières sont mesurables avec un simple thermo-hygromètre et visibles en photo-infrarouges. Dans ces zones, les attaques de scolytes semblent favorisées, selon des études qui demandent encore à être affinées.
 Meilleure protection du sol, et si nécessaire sa restauration.
 Meilleure gestion de l'eau, de manière à mieux la retenir en forêt, dès le haut des bassins-versant (pour limiter l'impact des sécheresses), alors que depuis le Moyen Âge on a surtout drainé et asséché les forêts.
 Biodiversité élevée des arbres, ce qui implique l'usage de sujets issus de souches locales et adaptées au substrat, nés de graines et non clonés ou bouturés) et leur plantation en mélange. Il semble qu'elle soit favorable à moins de pullulations et à une meilleure résilience, mais de nombreuses inconnues persistent en raison du réchauffement climatique attendu ; dans les forêts polonaises et bélarusses de Białowieskiej, les pullulations semblent toutes corrélées à des stress climatiques, mais elles restent localisées.
@@ -662,13 +682,15 @@
           <t>Quelques espèces de scolytes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Alniphagus aspericollis ou scolyte de l'aulne
 Bostrychus capucinus ou bostryche capucin. Élytres rouges et tête noire.
 Conophthorus resinosae Hopkins ou scolyte des cônes du pin rouge.
 Dryocoetes betulae ou scolyte brun du bouleau
-Hylesinus californicus ou scolyte du frêne de l'ouest, présent dans la moitié occidentale de l'Amérique du Nord sur les frênes[12].
+Hylesinus californicus ou scolyte du frêne de l'ouest, présent dans la moitié occidentale de l'Amérique du Nord sur les frênes.
 Hylurgopinus rufipes ou scolyte américain de l'orme, originaire d'Amérique du Nord.
 Hypothenemus hampei Ferr. (syn. Stephanoderes hampei) ou scolyte des cerises du caféier, originaire d'Afrique, mais présent dans la plupart des régions tropicales.
 Ips cembrae ou grand scolyte du mélèze, en Europe.
@@ -686,7 +708,7 @@
 Scolytus scolytus ou grand scolyte de l'orme, vecteur de la graphiose, maladie qui a décimé les ormes d'Europe.
 Taphrorychus bicolor ou petit scolyte du hêtre.
 Tomicus piniperda ou blastophage du pin
-Trypodendron lineatum ou scolyte birayé, se reproduit normalement dans les conifères morts ou moribonds de l'Amérique du Nord, mais attaque aussi les érables et les aubiers[13].
+Trypodendron lineatum ou scolyte birayé, se reproduit normalement dans les conifères morts ou moribonds de l'Amérique du Nord, mais attaque aussi les érables et les aubiers.
  Xyleborus dispar ou xylébore disparate.
 Xyleborus saxeseni ou petit bostryche.
 Xylosandrus germanus ou bostryche noir du Japon.</t>
@@ -717,7 +739,9 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiscolytini - Bothrosternini - Cactopinini - Carphodicticini - Coptonotini - Corthylini - Cryphalini - Crypturgini - Diamerini - Dryocoetini - Hexacolini - Hylastini - Hylesinini - Hylurgini - Hyorrhynchini - Hypoborini - Ipini - Micracidini - Phloeosinini - Phloeotribini - Phrixosomatini - Polygraphini - Premnobiini - Scolytini - Scolytoplatypodini - Xyleborini - Xyloctonini - Xyloterini - †Cylindrobrotini
 </t>
@@ -748,7 +772,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alniphagus Swaine, 1918.
